--- a/lift/state model transition table.xlsx
+++ b/lift/state model transition table.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="8">
   <si>
     <t>1. стоит закрытый</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>6. выход и вход пассажиров</t>
+  </si>
+  <si>
+    <t>m</t>
   </si>
 </sst>
 </file>
@@ -363,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
@@ -586,6 +589,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
